--- a/tabelas/rentabilidade.xlsx
+++ b/tabelas/rentabilidade.xlsx
@@ -520,10 +520,8 @@
       <c r="D2" t="n">
         <v>1.53</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -566,7 +564,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="3">
@@ -582,12 +580,10 @@
         <v>-7.57</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>-2.91</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.02</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -630,7 +626,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>-5.74</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="4">
@@ -648,10 +644,8 @@
       <c r="D4" t="n">
         <v>1.17</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.92</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -694,7 +688,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.24</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="5">
@@ -820,10 +814,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K6" t="n">
+        <v>1.06</v>
       </c>
       <c r="L6" t="n">
         <v>-0.51</v>
@@ -832,7 +824,7 @@
         <v>0.76</v>
       </c>
       <c r="N6" t="n">
-        <v>0.25</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
@@ -886,10 +878,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K7" t="n">
+        <v>-0.08</v>
       </c>
       <c r="L7" t="n">
         <v>-3.06</v>
@@ -898,7 +888,7 @@
         <v>-2.18</v>
       </c>
       <c r="N7" t="n">
-        <v>-5.17</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="8">
@@ -952,10 +942,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K8" t="n">
+        <v>0.97</v>
       </c>
       <c r="L8" t="n">
         <v>1.02</v>
@@ -964,7 +952,7 @@
         <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.15</v>
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>
